--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -56,17 +56,30 @@
   <si>
     <t>3hrs</t>
   </si>
+  <si>
+    <t>Java:HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Hashmap create student details like insert,search,delete and Display all the details.
+</t>
+  </si>
+  <si>
+    <t>9hrs</t>
+  </si>
+  <si>
+    <t>Cloud kitchen Process</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -94,30 +107,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +160,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -154,10 +190,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,45 +214,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -216,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +271,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,61 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,109 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +596,36 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,21 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -650,17 +678,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,160 +697,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1181,7 +1194,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1229,7 +1242,7 @@
       <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1253,19 +1266,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+    <row r="6" ht="43.5" spans="2:6">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44354</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44354</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -67,6 +67,21 @@
     <t>9hrs</t>
   </si>
   <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Data Structure-Algorithms</t>
+  </si>
+  <si>
+    <t>6hrs</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
     <t>Cloud kitchen Process</t>
   </si>
 </sst>
@@ -75,11 +90,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -106,6 +121,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,14 +137,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,62 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +221,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -222,14 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +250,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +286,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +316,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,163 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,60 +611,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +633,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -681,8 +651,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +697,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,143 +727,140 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,10 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1194,7 +1206,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1271,12 +1283,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1288,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>44354</v>
+        <v>44352</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
@@ -1301,32 +1313,72 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44353</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44353</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="43.5" spans="2:6">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -84,16 +84,24 @@
   <si>
     <t>Cloud kitchen Process</t>
   </si>
+  <si>
+    <t xml:space="preserve">HashTable with insert,delete,update,remove,
+search and print all student details. Web technology concepts revised.
+</t>
+  </si>
+  <si>
+    <t>10hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -121,14 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,8 +136,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,8 +173,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +198,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,32 +220,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,24 +243,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,16 +266,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +294,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,49 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +426,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,73 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +619,69 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,56 +704,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,170 +720,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,6 +889,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1205,8 +1216,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1380,18 +1391,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+    <row r="12" ht="58" spans="2:6">
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44355</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6">

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -92,17 +92,20 @@
   <si>
     <t>10hrs</t>
   </si>
+  <si>
+    <t>Create a three different webpages 1. paragraph with logo and header 2.login page 3.registration page.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -129,6 +132,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,16 +169,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,83 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +297,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,25 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,67 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,43 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,19 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,8 +629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,21 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,15 +661,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +689,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -723,152 +726,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -888,10 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1217,7 +1217,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1401,19 +1401,29 @@
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="9"/>
+    <row r="13" ht="29" spans="2:6">
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44356</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -95,17 +95,23 @@
   <si>
     <t>Create a three different webpages 1. paragraph with logo and header 2.login page 3.registration page.</t>
   </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Create  different webpages in single website with link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -132,16 +138,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,18 +175,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,15 +199,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -208,19 +231,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,8 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,23 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,13 +315,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,37 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,55 +471,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,24 +634,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +677,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -676,15 +711,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,171 +729,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -891,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1217,7 +1223,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1426,18 +1432,38 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44357</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44357</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -101,6 +101,12 @@
   <si>
     <t>Create  different webpages in single website with link</t>
   </si>
+  <si>
+    <t>Revised all the concepts in Core Java.</t>
+  </si>
+  <si>
+    <t>12hrs</t>
+  </si>
 </sst>
 </file>
 
@@ -108,8 +114,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -139,22 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +158,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,11 +189,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,8 +205,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,23 +244,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,15 +273,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,21 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +321,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +363,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +399,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,97 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,31 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,35 +634,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,21 +649,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +677,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -732,148 +738,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1229,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1466,11 +1472,21 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44358</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -107,6 +107,13 @@
   <si>
     <t>12hrs</t>
   </si>
+  <si>
+    <t>creating webpage using servlet.
+ learning the concepts in servlet and webpages.</t>
+  </si>
+  <si>
+    <t>11hrs</t>
+  </si>
 </sst>
 </file>
 
@@ -115,9 +122,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,15 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,9 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +176,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,8 +258,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,23 +282,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,13 +316,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,55 +472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,91 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +641,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,44 +710,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,18 +733,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,31 +763,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,101 +796,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -903,7 +910,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1229,7 +1239,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1488,12 +1498,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+    <row r="17" ht="29" spans="2:6">
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44359</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -120,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -159,18 +159,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,9 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -274,8 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,13 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +316,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,13 +340,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,145 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,15 +641,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,11 +701,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,13 +731,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,140 +760,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,10 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1239,7 +1236,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1503,12 +1500,12 @@
         <v>14</v>
       </c>
       <c r="C17" s="13">
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="9" t="s">

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -114,16 +114,19 @@
   <si>
     <t>11hrs</t>
   </si>
+  <si>
+    <t>Servlet programs practise:html,sss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -151,9 +154,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,31 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +222,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -251,7 +254,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -259,7 +262,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,13 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -316,61 +319,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,19 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +385,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,67 +481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +748,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,139 +763,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,7 +1239,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1513,11 +1516,21 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44362</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -117,17 +117,24 @@
   <si>
     <t>Servlet programs practise:html,sss</t>
   </si>
+  <si>
+    <t>Core Java:Multi-Threading  Creating webpages using 
+html,css and  to create a Servlet program.</t>
+  </si>
+  <si>
+    <t>13hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -156,6 +163,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -164,20 +185,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,16 +229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,17 +260,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +282,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -293,6 +293,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +326,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,127 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,37 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,17 +655,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,11 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,15 +744,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -748,152 +755,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,7 +920,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1239,7 +1249,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1532,12 +1542,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+    <row r="19" ht="29" spans="2:6">
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44363</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -124,17 +124,26 @@
   <si>
     <t>13hrs</t>
   </si>
+  <si>
+    <t>Multi-Threading and Collections:Algorithms</t>
+  </si>
+  <si>
+    <t>jBPM installation and BPM elements, flow objects</t>
+  </si>
+  <si>
+    <t>7hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,11 +170,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,15 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,13 +210,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,14 +232,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +269,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,16 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +335,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,55 +377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,19 +443,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,73 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,18 +666,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +714,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -741,33 +761,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,131 +785,131 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,10 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1248,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1552,7 +1558,7 @@
       <c r="D19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1560,18 +1566,38 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44364</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44364</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>7hrs</t>
+  </si>
+  <si>
+    <t>Collections: Arraylist/Linkedlist ::add,remove,update.</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>create a program using jbpm software.</t>
+  </si>
+  <si>
+    <t>5hrs</t>
   </si>
 </sst>
 </file>
@@ -141,8 +153,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -170,8 +182,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,16 +205,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,22 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,7 +299,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,22 +314,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,13 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +365,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,108 +467,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -486,18 +474,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +491,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,13 +676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +716,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -716,9 +747,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,47 +765,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,130 +794,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1254,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1600,18 +1612,38 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44365</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44365</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>5hrs</t>
+  </si>
+  <si>
+    <t>Hash Table and Graph</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a example program </t>
+  </si>
+  <si>
+    <t>4hrs</t>
   </si>
 </sst>
 </file>
@@ -151,11 +163,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,9 +194,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,17 +231,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,57 +263,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,9 +288,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,8 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,13 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,25 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,25 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,19 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,16 +689,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,22 +722,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,22 +751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,151 +774,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1267,7 +1279,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1646,18 +1658,38 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13">
+        <v>44368</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44368</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>4hrs</t>
+  </si>
+  <si>
+    <t>Collections:Set</t>
+  </si>
+  <si>
+    <t>Maven and gson(jarfile)basics</t>
   </si>
 </sst>
 </file>
@@ -164,10 +170,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -194,30 +200,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,27 +231,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +265,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,9 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +323,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,8 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +467,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,97 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,17 +694,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,15 +714,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +738,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,148 +794,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,7 +1285,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1692,18 +1698,38 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44369</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="7">
+        <v>24</v>
+      </c>
+      <c r="C27" s="13">
+        <v>44369</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Maven and gson(jarfile)basics</t>
+  </si>
+  <si>
+    <t>TreeSet:String sort in ascending and length</t>
+  </si>
+  <si>
+    <t>Maven basics:learn</t>
   </si>
 </sst>
 </file>
@@ -172,8 +178,8 @@
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -201,38 +207,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,11 +235,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,8 +305,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,37 +337,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +371,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,67 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,31 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,37 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,8 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,21 +749,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -775,8 +766,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,15 +800,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,130 +818,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,7 +1291,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1732,18 +1738,38 @@
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="7">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13">
+        <v>44370</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="7">
+        <v>26</v>
+      </c>
+      <c r="C29" s="13">
+        <v>44370</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Maven basics:learn</t>
+  </si>
+  <si>
+    <t>Hashmap and treeset with examples</t>
+  </si>
+  <si>
+    <t>Parallel ,Subprocess and embedded subprocess</t>
   </si>
 </sst>
 </file>
@@ -175,11 +181,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -206,8 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +235,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,16 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +276,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,13 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -343,8 +341,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,13 +377,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,55 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,85 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,19 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,11 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,6 +760,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -766,182 +798,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1291,7 +1297,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1772,18 +1778,38 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="7">
+        <v>27</v>
+      </c>
+      <c r="C30" s="13">
+        <v>44371</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="7">
+        <v>28</v>
+      </c>
+      <c r="C31" s="13">
+        <v>44371</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="7"/>

--- a/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
+++ b/Nivedha/Schwall_TraineeNivedha_Timesheet_June_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Parallel ,Subprocess and embedded subprocess</t>
+  </si>
+  <si>
+    <t>Servlets basics: learn html and sql concepts,treemap</t>
+  </si>
+  <si>
+    <t>getVariable,setVariable :subprocess,parallel</t>
   </si>
 </sst>
 </file>
@@ -181,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -212,16 +218,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,17 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +259,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,14 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -310,15 +311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -335,20 +334,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -377,25 +383,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +467,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,61 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,31 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,17 +712,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,16 +772,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,19 +789,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,19 +809,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,139 +824,136 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,7 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1297,7 +1303,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1812,18 +1818,38 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="7">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13">
+        <v>44372</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="7">
+        <v>30</v>
+      </c>
+      <c r="C33" s="13">
+        <v>44372</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7"/>
